--- a/training/iepd-developer/map-and-model/assets/SampleEmptyMappingDocument.xlsx
+++ b/training/iepd-developer/map-and-model/assets/SampleEmptyMappingDocument.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Working_Dox\SourceTrees\NIEM.github.io\training\iepd-developer\asssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ld60\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Source Container Type</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Bla bla bla…</t>
+  </si>
+  <si>
+    <t>NIEM Element Cardinality</t>
+  </si>
+  <si>
+    <t>Source Element Cardinality</t>
   </si>
 </sst>
 </file>
@@ -256,17 +262,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <tableColumns count="11">
     <tableColumn id="1" name="Source Container Type" dataDxfId="8"/>
     <tableColumn id="2" name="Source Element" dataDxfId="7"/>
     <tableColumn id="3" name="Source Data Type" dataDxfId="6"/>
     <tableColumn id="4" name="Source Element Definition" dataDxfId="5"/>
+    <tableColumn id="10" name="Source Element Cardinality"/>
     <tableColumn id="5" name="Mapping" dataDxfId="4"/>
     <tableColumn id="6" name="NIEM Element" dataDxfId="3"/>
     <tableColumn id="7" name="NIEM Element Path" dataDxfId="2"/>
     <tableColumn id="8" name="NIEM Type" dataDxfId="1"/>
-    <tableColumn id="9" name="NIEM Element Definition" dataDxfId="0"/>
+    <tableColumn id="11" name="NIEM Element Definition"/>
+    <tableColumn id="9" name="NIEM Element Cardinality" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,25 +543,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,23 +575,29 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -595,32 +610,36 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
